--- a/dist/document/dest/2020/10/products/Trisova.xlsx
+++ b/dist/document/dest/2020/10/products/Trisova.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="102">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
@@ -19,7 +19,7 @@
     <t>BÁO CÁO TÌNH HÌNH MUA BÁN THUỐC TRISOVA</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -37,28 +37,55 @@
     <t>SL</t>
   </si>
   <si>
+    <t>01/10 -&gt; 16/10/2020</t>
+  </si>
+  <si>
     <t>Lê Thị Thuý</t>
   </si>
   <si>
     <t>An</t>
   </si>
   <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
     <t>Nguyễn Thị Hồng</t>
   </si>
   <si>
     <t>Anh</t>
   </si>
   <si>
+    <t>26/10/2020</t>
+  </si>
+  <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
     <t>Lương Thanh</t>
   </si>
   <si>
     <t>Bửu</t>
   </si>
   <si>
-    <t>Nguyễn Kỳ</t>
-  </si>
-  <si>
-    <t>Chân</t>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành</t>
+  </si>
+  <si>
+    <t>Đăng</t>
   </si>
   <si>
     <t>Đoàn Thị Ngọc</t>
@@ -91,33 +118,18 @@
     <t>Dũng</t>
   </si>
   <si>
-    <t>Nguyễn Văn</t>
-  </si>
-  <si>
-    <t>Hiền</t>
-  </si>
-  <si>
     <t>Trần Thị Tố</t>
   </si>
   <si>
     <t>Hoa</t>
   </si>
   <si>
-    <t>Nguyễn Thị Ánh</t>
-  </si>
-  <si>
-    <t>Hồng</t>
-  </si>
-  <si>
     <t>Nguyễn văn</t>
   </si>
   <si>
     <t>Hưng</t>
   </si>
   <si>
-    <t>Trần Tấn</t>
-  </si>
-  <si>
     <t>Bùi Thị Vân</t>
   </si>
   <si>
@@ -136,12 +148,15 @@
     <t>Lãm</t>
   </si>
   <si>
+    <t>Lê Hữu</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
     <t>Nguyễn Đình</t>
   </si>
   <si>
-    <t>Linh</t>
-  </si>
-  <si>
     <t>Mai Quang Vĩnh</t>
   </si>
   <si>
@@ -160,10 +175,19 @@
     <t>Mai</t>
   </si>
   <si>
+    <t>Dương Quang Huỳnh</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
     <t>Nguyễn Thuý</t>
   </si>
   <si>
-    <t>Nga</t>
+    <t>Võ Nguyễn Thành</t>
+  </si>
+  <si>
+    <t>Nhân</t>
   </si>
   <si>
     <t>Lê Ngọc Hồng</t>
@@ -172,6 +196,12 @@
     <t>Nhung</t>
   </si>
   <si>
+    <t>Lý Văn</t>
+  </si>
+  <si>
+    <t>Phái</t>
+  </si>
+  <si>
     <t>Lê Thị Minh</t>
   </si>
   <si>
@@ -190,10 +220,10 @@
     <t>Thái</t>
   </si>
   <si>
-    <t>Nguyễn Minh</t>
-  </si>
-  <si>
-    <t>Thiền</t>
+    <t>Trương Công</t>
+  </si>
+  <si>
+    <t>Thành</t>
   </si>
   <si>
     <t>Võ Trọng</t>
@@ -202,12 +232,6 @@
     <t>Thịnh</t>
   </si>
   <si>
-    <t>Nguyễn Linh</t>
-  </si>
-  <si>
-    <t>Thoại</t>
-  </si>
-  <si>
     <t>Phạm Thiện</t>
   </si>
   <si>
@@ -226,12 +250,6 @@
     <t>Thuý</t>
   </si>
   <si>
-    <t>Phạm Thị Thu</t>
-  </si>
-  <si>
-    <t>Thuỷ</t>
-  </si>
-  <si>
     <t>Huỳnh Thắng</t>
   </si>
   <si>
@@ -271,16 +289,16 @@
     <t>Trung</t>
   </si>
   <si>
-    <t>Trương Đoàn Chí</t>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Tường</t>
   </si>
   <si>
     <t>Nguyễn Tuyết</t>
   </si>
   <si>
     <t>Vân</t>
-  </si>
-  <si>
-    <t>Trần Thị Hồng</t>
   </si>
   <si>
     <t>Bùi Quang</t>
@@ -741,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E241"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -801,12 +819,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="10">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -814,16 +836,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" s="10">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -831,16 +853,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" s="10">
-        <v>6155</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -848,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>12</v>
@@ -857,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="10">
-        <v>7043</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -865,16 +887,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="10">
-        <v>420</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -882,16 +904,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" s="10">
-        <v>2782</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -899,16 +921,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E12" s="10">
-        <v>2188</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -916,16 +938,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E13" s="10">
-        <v>14270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -933,16 +955,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E14" s="10">
-        <v>6735</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -950,16 +972,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15" s="10">
-        <v>450</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -970,13 +992,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16" s="10">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -984,16 +1006,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E17" s="10">
-        <v>21630</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1001,16 +1023,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E18" s="10">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1018,16 +1040,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E19" s="10">
-        <v>39517</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1035,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E20" s="10">
-        <v>90</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1052,16 +1074,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E21" s="10">
-        <v>1114</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1069,16 +1091,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E22" s="10">
-        <v>7482</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1086,16 +1108,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E23" s="10">
-        <v>2730</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1106,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E24" s="10">
-        <v>47660</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1120,16 +1142,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E25" s="10">
-        <v>21802</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1137,16 +1159,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E26" s="10">
-        <v>11360</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1154,16 +1176,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E27" s="10">
-        <v>4200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1171,16 +1193,16 @@
         <v>23</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E28" s="10">
-        <v>3395</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1188,16 +1210,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E29" s="10">
-        <v>750</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1205,16 +1227,16 @@
         <v>25</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E30" s="10">
-        <v>540</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1225,13 +1247,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E31" s="10">
-        <v>14042</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1239,16 +1261,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E32" s="10">
-        <v>7160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1256,16 +1278,16 @@
         <v>28</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E33" s="10">
-        <v>6</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1273,16 +1295,16 @@
         <v>29</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E34" s="10">
-        <v>13814</v>
+        <v>998</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1290,16 +1312,16 @@
         <v>30</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E35" s="10">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1307,16 +1329,16 @@
         <v>31</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E36" s="10">
-        <v>6010</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1324,16 +1346,16 @@
         <v>32</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E37" s="10">
-        <v>2200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1341,16 +1363,16 @@
         <v>33</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E38" s="10">
-        <v>720</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1358,16 +1380,16 @@
         <v>34</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E39" s="10">
-        <v>180</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1375,16 +1397,16 @@
         <v>35</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E40" s="10">
-        <v>840</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1392,16 +1414,16 @@
         <v>36</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E41" s="10">
-        <v>3769</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1409,16 +1431,16 @@
         <v>37</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E42" s="10">
-        <v>930</v>
+        <v>8205</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1426,16 +1448,16 @@
         <v>38</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E43" s="10">
-        <v>6922</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1443,16 +1465,16 @@
         <v>39</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E44" s="10">
-        <v>5335</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1463,13 +1485,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="E45" s="10">
-        <v>11588</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1477,16 +1499,16 @@
         <v>41</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="E46" s="10">
-        <v>2805</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1497,13 +1519,13 @@
         <v>2</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="E47" s="10">
-        <v>124</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1511,16 +1533,16 @@
         <v>43</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="E48" s="10">
-        <v>7576</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1528,16 +1550,16 @@
         <v>44</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="E49" s="10">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1545,16 +1567,16 @@
         <v>45</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="E50" s="10">
-        <v>840</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="51" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1562,43 +1584,3222 @@
         <v>46</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>47</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="10">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="53" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>48</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>49</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="10">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="55" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>50</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>51</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>52</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>53</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="10">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>54</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>55</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="10">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="61" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>56</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="10">
+        <v>10560</v>
+      </c>
+    </row>
+    <row r="62" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>57</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="10">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="63" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>58</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="10">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="64" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>59</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C64" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="10">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="65" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>60</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="10">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="66" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>61</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>62</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="10">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="68" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>63</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="10">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="69" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>64</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="10">
+        <v>19956</v>
+      </c>
+    </row>
+    <row r="70" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>65</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="10">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="71" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>66</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="10">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="72" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>67</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="10">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="73" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>68</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="10">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="74" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>69</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="10">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="75" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>70</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>71</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>72</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="10">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="78" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>73</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>74</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="10">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="80" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>75</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>76</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="82" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>77</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>78</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>79</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>80</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>81</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>82</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="10">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>83</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="10">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="89" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>84</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>85</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>86</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>87</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>88</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>89</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>90</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="10">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="96" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>91</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="10">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="97" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
         <v>92</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="B97" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="10">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="98" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
         <v>93</v>
       </c>
-      <c r="E51" s="10">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="52" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="B98" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="10">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="99" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
         <v>94</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="11">
-        <v>288376</v>
-      </c>
-    </row>
-    <row r="53" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="B99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" s="10">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="100" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
         <v>95</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="4"/>
+      <c r="B100" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="10">
+        <v>25482</v>
+      </c>
+    </row>
+    <row r="101" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>96</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="10">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="102" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>97</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="10">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="103" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>98</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="10">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="104" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>99</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="10">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="105" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>100</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E105" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="106" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>101</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106" s="10">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="107" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>102</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E107" s="10">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="108" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>103</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" s="10">
+        <v>7732</v>
+      </c>
+    </row>
+    <row r="109" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>104</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" s="10">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>105</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110" s="10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
+        <v>106</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E111" s="10">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
+        <v>107</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E112" s="10">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
+        <v>108</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="114" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
+        <v>109</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" s="10">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="115" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
+        <v>110</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E115" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="9">
+        <v>111</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E116" s="10">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="117" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="9">
+        <v>112</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="10">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="118" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="9">
+        <v>113</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E118" s="10">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="119" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="9">
+        <v>114</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E119" s="10">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="120" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
+        <v>115</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E120" s="10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="121" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="9">
+        <v>116</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9">
+        <v>117</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E122" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9">
+        <v>118</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E123" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9">
+        <v>119</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E124" s="10">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="125" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9">
+        <v>120</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E125" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9">
+        <v>121</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E126" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9">
+        <v>122</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9">
+        <v>123</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9">
+        <v>124</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E129" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9">
+        <v>125</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E130" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9">
+        <v>126</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9">
+        <v>127</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E132" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="9">
+        <v>128</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="10">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="134" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
+        <v>129</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9">
+        <v>130</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E135" s="10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9">
+        <v>131</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9">
+        <v>132</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E137" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9">
+        <v>133</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E138" s="10">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="139" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9">
+        <v>134</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E139" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9">
+        <v>135</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9">
+        <v>136</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9">
+        <v>137</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="9">
+        <v>138</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E143" s="10">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="144" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9">
+        <v>139</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E144" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="9">
+        <v>140</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E145" s="10">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="146" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="9">
+        <v>141</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E146" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="9">
+        <v>142</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E147" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="9">
+        <v>143</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E148" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="149" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="9">
+        <v>144</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E149" s="10">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="150" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="9">
+        <v>145</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E150" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="9">
+        <v>146</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E151" s="10">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="152" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="9">
+        <v>147</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E152" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="153" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="9">
+        <v>148</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E153" s="10">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="154" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="9">
+        <v>149</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E154" s="10">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="155" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="9">
+        <v>150</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E155" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="9">
+        <v>151</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E156" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="9">
+        <v>152</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E157" s="10">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="158" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="9">
+        <v>153</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E158" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="9">
+        <v>154</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E159" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="9">
+        <v>155</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E160" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="9">
+        <v>156</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E161" s="10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="162" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="9">
+        <v>157</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E162" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="9">
+        <v>158</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E163" s="10">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="164" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="9">
+        <v>159</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E164" s="10">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="165" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="9">
+        <v>160</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E165" s="10">
+        <v>5554</v>
+      </c>
+    </row>
+    <row r="166" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="9">
+        <v>161</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E166" s="10">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="167" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="9">
+        <v>162</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E167" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="9">
+        <v>163</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E168" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="9">
+        <v>164</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E169" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="9">
+        <v>165</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E170" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="9">
+        <v>166</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E171" s="10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="9">
+        <v>167</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E172" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="9">
+        <v>168</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E173" s="10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="174" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="9">
+        <v>169</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E174" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="175" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="9">
+        <v>170</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E175" s="10">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="176" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="9">
+        <v>171</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E176" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="9">
+        <v>172</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E177" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="178" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="9">
+        <v>173</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E178" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="9">
+        <v>174</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E179" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="9">
+        <v>175</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E180" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="9">
+        <v>176</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E181" s="10">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="182" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="9">
+        <v>177</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E182" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="9">
+        <v>178</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E183" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="9">
+        <v>179</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E184" s="10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="185" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="9">
+        <v>180</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E185" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="186" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="9">
+        <v>181</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E186" s="10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="187" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="9">
+        <v>182</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E187" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="9">
+        <v>183</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E188" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="9">
+        <v>184</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E189" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="190" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="9">
+        <v>185</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E190" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="191" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="9">
+        <v>186</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E191" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="192" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="9">
+        <v>187</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E192" s="10">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="193" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="9">
+        <v>188</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E193" s="10">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="194" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="9">
+        <v>189</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E194" s="10">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="195" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="9">
+        <v>190</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E195" s="10">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="196" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="9">
+        <v>191</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E196" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="197" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="9">
+        <v>192</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E197" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="198" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="9">
+        <v>193</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E198" s="10">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="199" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="9">
+        <v>194</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E199" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="200" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="9">
+        <v>195</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E200" s="10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="201" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="9">
+        <v>196</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E201" s="10">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="202" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="9">
+        <v>197</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E202" s="10">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="203" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="9">
+        <v>198</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E203" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="204" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="9">
+        <v>199</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E204" s="10">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="205" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="9">
+        <v>200</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E205" s="10">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="206" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="9">
+        <v>201</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E206" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="207" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="9">
+        <v>202</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E207" s="10">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="208" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="9">
+        <v>203</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E208" s="10">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="209" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="9">
+        <v>204</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E209" s="10">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="210" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="9">
+        <v>205</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E210" s="10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="211" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="9">
+        <v>206</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E211" s="10">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="212" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="9">
+        <v>207</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E212" s="10">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="213" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="9">
+        <v>208</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E213" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="214" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="9">
+        <v>209</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E214" s="10">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="215" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="9">
+        <v>210</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E215" s="10">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="216" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="9">
+        <v>211</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E216" s="10">
+        <v>6464</v>
+      </c>
+    </row>
+    <row r="217" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="9">
+        <v>212</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E217" s="10">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="218" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="9">
+        <v>213</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E218" s="10">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="219" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="9">
+        <v>214</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E219" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="220" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="9">
+        <v>215</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E220" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="221" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="9">
+        <v>216</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E221" s="10">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="222" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="9">
+        <v>217</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E222" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="223" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="9">
+        <v>218</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E223" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="9">
+        <v>219</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E224" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="225" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="9">
+        <v>220</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E225" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="9">
+        <v>221</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E226" s="10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="227" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="9">
+        <v>222</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E227" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="228" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="9">
+        <v>223</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E228" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="9">
+        <v>224</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E229" s="10">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="230" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="9">
+        <v>225</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E230" s="10">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="231" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="9">
+        <v>226</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E231" s="10">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="232" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="9">
+        <v>227</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E232" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="9">
+        <v>228</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E233" s="10">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="234" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="9">
+        <v>229</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E234" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="235" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="9">
+        <v>230</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E235" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="236" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="9">
+        <v>231</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E236" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="237" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="9">
+        <v>232</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E237" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="238" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="9">
+        <v>233</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E238" s="10">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="239" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B239" s="7"/>
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="11">
+        <v>236467</v>
+      </c>
+    </row>
+    <row r="240" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+      <c r="E241" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A239:D239"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
